--- a/data/trans_camb/P23_4_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_4_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,1</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 2,06</t>
+          <t>-4,4; 5,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 0,63</t>
+          <t>-7,11; 2,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 4,19</t>
+          <t>-4,68; 7,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 0,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 1,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 8,5</t>
+          <t>-5,45; 2,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 0,1</t>
+          <t>-5,13; 2,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,08; -0,11</t>
+          <t>-1,84; 8,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 5,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,2; 3,03</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,2; 1,88</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 6,91</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-30,63%</t>
+          <t>18,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-49,87%</t>
+          <t>-32,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,67%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-40,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-30,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>68,5%</t>
+          <t>-14,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-34,84%</t>
+          <t>-9,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-40,22%</t>
+          <t>67,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,14%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1,49%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-20,31%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>45,74%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-69,03; 45,35</t>
+          <t>-51,3; 215,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-80,19; 18,97</t>
+          <t>-74,08; 96,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-61,16; 85,39</t>
+          <t>-60,67; 223,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-70,28; 18,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-65,14; 36,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 196,08</t>
+          <t>-69,47; 95,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-61,23; 5,16</t>
+          <t>-64,63; 103,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-65,13; 2,78</t>
+          <t>-32,08; 280,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 93,39</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-44,15; 87,92</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-56,06; 56,0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-24,58; 175,82</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-5,04</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,5</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-1,51</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 4,41</t>
+          <t>-0,98; 6,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 5,07</t>
+          <t>-2,83; 3,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 6,32</t>
+          <t>-3,59; 2,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,66; -1,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 0,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 3,71</t>
+          <t>-10,4; -1,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 0,3</t>
+          <t>-7,7; 1,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 2,22</t>
+          <t>-7,51; 1,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 3,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,63; 0,95</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 1,4</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-4,67; 0,76</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>27,63%</t>
+          <t>54,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>76,19%</t>
+          <t>-17,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-64,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-23,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>-64,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-30,31%</t>
+          <t>-29,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-12,57%</t>
+          <t>-28,25%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-24,99%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-18,85%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-25,18%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,54; 141,45</t>
+          <t>-24,68; 245,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-45,64; 159,12</t>
+          <t>-52,61; 160,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 196,87</t>
+          <t>-63,04; 91,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-80,25; -35,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,17; 16,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,84; 67,94</t>
+          <t>-83,17; -32,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-55,21; 8,29</t>
+          <t>-62,1; 26,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,93; 44,87</t>
+          <t>-64,27; 29,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 87,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-56,93; 22,66</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-48,14; 31,87</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-56,68; 20,69</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,27</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,87</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 1,63</t>
+          <t>-3,54; 3,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 2,9</t>
+          <t>-2,8; 2,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 7,51</t>
+          <t>-0,33; 8,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 0,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 2,03</t>
+          <t>-4,67; 0,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 0,56</t>
+          <t>-2,93; 2,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 1,92</t>
+          <t>-2,84; 3,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 3,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 0,93</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-1,97; 2,1</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 4,64</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-38,41%</t>
+          <t>-23,06%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>108,77%</t>
+          <t>138,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-40,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-25,94%</t>
+          <t>-43,75%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-39,16%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-36,09%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>5,76%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>53,36%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-90,16; 155,93</t>
+          <t>-89,11; 421,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-63,03; 195,3</t>
+          <t>-65,12; 283,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-28,38; 398,31</t>
+          <t>-18,05; 685,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-70,07; 19,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-45,53; 82,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-69,5; 77,65</t>
+          <t>-76,75; 31,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-69,17; 28,95</t>
+          <t>-47,45; 100,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-38,41; 75,0</t>
+          <t>-48,61; 116,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-30,95; 132,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-71,59; 45,16</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-40,77; 94,29</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-15,05; 185,67</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-2,94</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 2,02</t>
+          <t>-5,28; 0,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 1,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,88</t>
+          <t>-1,35; 6,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,1; -1,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 0,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 3,32</t>
+          <t>-6,49; -0,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,01; -0,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 0,53</t>
+          <t>-5,2; 1,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,81; -0,82</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-2,17; 3,33</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,04%</t>
+          <t>-46,63%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-12,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>56,72%</t>
+          <t>49,08%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-53,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-20,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>-56,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-32,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-17,54%</t>
+          <t>-35,5%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-52,41%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-35,79; 59,94</t>
+          <t>-78,23; 24,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-45,9; 45,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,0; 131,43</t>
+          <t>-27,78; 174,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-68,1; -31,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-43,09; 8,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 65,66</t>
+          <t>-81,02; -10,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-49,89; -9,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-35,99; 11,42</t>
+          <t>-68,87; 25,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,4; 72,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-71,39; -16,64</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-34,59; 72,9</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-3,21</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,24</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,88</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 2,26</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,19; 1,39</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,52; 3,98</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; -1,67</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,1; 0,46</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 1,13</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,9; -0,34</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-2,08; 0,35</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 1,75</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-11,83%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>35,1%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-52,24%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-20,17%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-11,7%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-30,19%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-16,84%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>7,04%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-32,04; 65,18</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-42,76; 45,21</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-11,51; 105,5</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-67,96; -32,04</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-42,21; 11,91</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-38,89; 23,05</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-48,89; -7,09</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-35,87; 7,11</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-18,95; 38,04</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
